--- a/data/提交表格数据/TJ5/二仙桥东枢纽RY匝道1号小桥/二仙桥东枢纽RY匝道1号小桥/二仙桥东枢纽RY匝道1号小桥.xlsx
+++ b/data/提交表格数据/TJ5/二仙桥东枢纽RY匝道1号小桥/二仙桥东枢纽RY匝道1号小桥/二仙桥东枢纽RY匝道1号小桥.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFE0F0F-17C3-4400-BCE8-A32BD02D1F8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="123">
   <si>
     <t>分项工程编码</t>
   </si>
@@ -367,9 +368,6 @@
     <t>互通立交工程/RY匝道1号小桥/总体、桥面系及附属结构/支座安装/0#台/</t>
   </si>
   <si>
-    <t>互通立交工程/RY匝道1号小桥/总体、桥面系及附属结构/支座安装/1#台/</t>
-  </si>
-  <si>
     <t>互通立交工程/RY匝道1号小桥/总体、桥面系及附属结构/搭板/0#台/</t>
   </si>
   <si>
@@ -379,13 +377,7 @@
     <t>互通立交工程/RY匝道1号小桥/总体、桥面系及附属结构/伸缩缝安装/0#台/</t>
   </si>
   <si>
-    <t>互通立交工程/RY匝道1号小桥/总体、桥面系及附属结构/伸缩缝安装/1台/</t>
-  </si>
-  <si>
     <t>互通立交工程/RY匝道1号小桥/总体、桥面系及附属结构/护栏/0#台/</t>
-  </si>
-  <si>
-    <t>互通立交工程/RY匝道1号小桥/总体、桥面系及附属结构/护栏/第1联/</t>
   </si>
   <si>
     <t>互通立交工程/RY匝道1号小桥/基础及下部构造/其他/全桥挖基土石方/</t>
@@ -411,126 +403,6 @@
   </si>
   <si>
     <t>子分项工程名称</t>
-  </si>
-  <si>
-    <t>零号清单编码2</t>
-  </si>
-  <si>
-    <t>零号清单编码3</t>
-  </si>
-  <si>
-    <t>零号清单编码4</t>
-  </si>
-  <si>
-    <t>零号清单编码5</t>
-  </si>
-  <si>
-    <t>零号清单编码6</t>
-  </si>
-  <si>
-    <t>零号清单编码7</t>
-  </si>
-  <si>
-    <t>零号清单编码8</t>
-  </si>
-  <si>
-    <t>零号清单编码9</t>
-  </si>
-  <si>
-    <t>零号清单编码10</t>
-  </si>
-  <si>
-    <t>零号清单编码11</t>
-  </si>
-  <si>
-    <t>零号清单编码12</t>
-  </si>
-  <si>
-    <t>零号清单编码13</t>
-  </si>
-  <si>
-    <t>零号清单编码14</t>
-  </si>
-  <si>
-    <t>零号清单编码15</t>
-  </si>
-  <si>
-    <t>零号清单编码16</t>
-  </si>
-  <si>
-    <t>零号清单编码17</t>
-  </si>
-  <si>
-    <t>零号清单编码18</t>
-  </si>
-  <si>
-    <t>零号清单编码19</t>
-  </si>
-  <si>
-    <t>零号清单编码20</t>
-  </si>
-  <si>
-    <t>零号清单编码21</t>
-  </si>
-  <si>
-    <t>零号清单编码22</t>
-  </si>
-  <si>
-    <t>零号清单编码23</t>
-  </si>
-  <si>
-    <t>零号清单编码24</t>
-  </si>
-  <si>
-    <t>零号清单编码25</t>
-  </si>
-  <si>
-    <t>零号清单编码26</t>
-  </si>
-  <si>
-    <t>零号清单编码27</t>
-  </si>
-  <si>
-    <t>零号清单编码28</t>
-  </si>
-  <si>
-    <t>零号清单编码29</t>
-  </si>
-  <si>
-    <t>零号清单编码30</t>
-  </si>
-  <si>
-    <t>零号清单编码31</t>
-  </si>
-  <si>
-    <t>零号清单编码32</t>
-  </si>
-  <si>
-    <t>零号清单编码33</t>
-  </si>
-  <si>
-    <t>零号清单编码34</t>
-  </si>
-  <si>
-    <t>零号清单编码35</t>
-  </si>
-  <si>
-    <t>零号清单编码36</t>
-  </si>
-  <si>
-    <t>零号清单编码37</t>
-  </si>
-  <si>
-    <t>零号清单编码38</t>
-  </si>
-  <si>
-    <t>零号清单编码39</t>
-  </si>
-  <si>
-    <t>零号清单编码40</t>
-  </si>
-  <si>
-    <t>零号清单编码41</t>
   </si>
   <si>
     <t>二仙桥东枢纽RY匝道1号小桥</t>
@@ -540,19 +412,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -561,14 +433,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -576,7 +448,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -590,7 +462,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -603,15 +475,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -619,7 +483,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Calibri Light"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -628,7 +492,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -637,7 +501,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -646,7 +510,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -654,7 +518,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -662,7 +526,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -670,7 +534,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -678,7 +542,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -687,7 +551,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -696,7 +560,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -704,7 +568,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -713,7 +577,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -721,7 +585,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -730,7 +594,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -929,68 +793,62 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1000,31 +858,31 @@
     </xf>
   </cellXfs>
   <cellStyles count="25">
-    <cellStyle name="标题 1 2" xfId="9"/>
-    <cellStyle name="标题 2 2" xfId="10"/>
-    <cellStyle name="标题 3 2" xfId="11"/>
-    <cellStyle name="标题 4 2" xfId="12"/>
-    <cellStyle name="标题 5" xfId="8"/>
-    <cellStyle name="差 2" xfId="13"/>
+    <cellStyle name="好 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="差 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 2 2" xfId="7"/>
-    <cellStyle name="常规 3" xfId="2"/>
-    <cellStyle name="常规 3 2" xfId="5"/>
-    <cellStyle name="常规 4" xfId="3"/>
-    <cellStyle name="常规 5" xfId="4"/>
-    <cellStyle name="常规 6" xfId="6"/>
-    <cellStyle name="好 2" xfId="14"/>
-    <cellStyle name="汇总 2" xfId="15"/>
-    <cellStyle name="计算 2" xfId="16"/>
-    <cellStyle name="检查单元格 2" xfId="17"/>
-    <cellStyle name="解释性文本 2" xfId="18"/>
-    <cellStyle name="警告文本 2" xfId="19"/>
-    <cellStyle name="链接单元格 2" xfId="20"/>
-    <cellStyle name="适中 2" xfId="21"/>
-    <cellStyle name="输出 2" xfId="22"/>
-    <cellStyle name="输入 2" xfId="23"/>
-    <cellStyle name="注释 2" xfId="24"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 4" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 5" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 6" xfId="6" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="标题 1 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="标题 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="标题 3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="标题 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="标题 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="检查单元格 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="汇总 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="注释 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="解释性文本 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="警告文本 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="计算 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="输入 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="输出 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="适中 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="链接单元格 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1301,681 +1159,558 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="25.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="56.77734375" style="1" customWidth="1"/>
-    <col min="9" max="257" width="9" style="1"/>
-    <col min="258" max="258" width="25.21875" style="1" customWidth="1"/>
-    <col min="259" max="259" width="27.44140625" style="1" customWidth="1"/>
-    <col min="260" max="260" width="23.109375" style="1" customWidth="1"/>
-    <col min="261" max="261" width="10" style="1" customWidth="1"/>
-    <col min="262" max="262" width="20" style="1" customWidth="1"/>
-    <col min="263" max="263" width="27" style="1" customWidth="1"/>
-    <col min="264" max="264" width="56.77734375" style="1" customWidth="1"/>
-    <col min="265" max="513" width="9" style="1"/>
-    <col min="514" max="514" width="25.21875" style="1" customWidth="1"/>
-    <col min="515" max="515" width="27.44140625" style="1" customWidth="1"/>
-    <col min="516" max="516" width="23.109375" style="1" customWidth="1"/>
-    <col min="517" max="517" width="10" style="1" customWidth="1"/>
-    <col min="518" max="518" width="20" style="1" customWidth="1"/>
-    <col min="519" max="519" width="27" style="1" customWidth="1"/>
-    <col min="520" max="520" width="56.77734375" style="1" customWidth="1"/>
-    <col min="521" max="769" width="9" style="1"/>
-    <col min="770" max="770" width="25.21875" style="1" customWidth="1"/>
-    <col min="771" max="771" width="27.44140625" style="1" customWidth="1"/>
-    <col min="772" max="772" width="23.109375" style="1" customWidth="1"/>
-    <col min="773" max="773" width="10" style="1" customWidth="1"/>
-    <col min="774" max="774" width="20" style="1" customWidth="1"/>
-    <col min="775" max="775" width="27" style="1" customWidth="1"/>
-    <col min="776" max="776" width="56.77734375" style="1" customWidth="1"/>
-    <col min="777" max="1025" width="9" style="1"/>
-    <col min="1026" max="1026" width="25.21875" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="27.44140625" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="23.109375" style="1" customWidth="1"/>
-    <col min="1029" max="1029" width="10" style="1" customWidth="1"/>
-    <col min="1030" max="1030" width="20" style="1" customWidth="1"/>
-    <col min="1031" max="1031" width="27" style="1" customWidth="1"/>
-    <col min="1032" max="1032" width="56.77734375" style="1" customWidth="1"/>
-    <col min="1033" max="1281" width="9" style="1"/>
-    <col min="1282" max="1282" width="25.21875" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="27.44140625" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="23.109375" style="1" customWidth="1"/>
-    <col min="1285" max="1285" width="10" style="1" customWidth="1"/>
-    <col min="1286" max="1286" width="20" style="1" customWidth="1"/>
-    <col min="1287" max="1287" width="27" style="1" customWidth="1"/>
-    <col min="1288" max="1288" width="56.77734375" style="1" customWidth="1"/>
-    <col min="1289" max="1537" width="9" style="1"/>
-    <col min="1538" max="1538" width="25.21875" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="27.44140625" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="23.109375" style="1" customWidth="1"/>
-    <col min="1541" max="1541" width="10" style="1" customWidth="1"/>
-    <col min="1542" max="1542" width="20" style="1" customWidth="1"/>
-    <col min="1543" max="1543" width="27" style="1" customWidth="1"/>
-    <col min="1544" max="1544" width="56.77734375" style="1" customWidth="1"/>
-    <col min="1545" max="1793" width="9" style="1"/>
-    <col min="1794" max="1794" width="25.21875" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="27.44140625" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="23.109375" style="1" customWidth="1"/>
-    <col min="1797" max="1797" width="10" style="1" customWidth="1"/>
-    <col min="1798" max="1798" width="20" style="1" customWidth="1"/>
-    <col min="1799" max="1799" width="27" style="1" customWidth="1"/>
-    <col min="1800" max="1800" width="56.77734375" style="1" customWidth="1"/>
-    <col min="1801" max="2049" width="9" style="1"/>
-    <col min="2050" max="2050" width="25.21875" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="27.44140625" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="23.109375" style="1" customWidth="1"/>
-    <col min="2053" max="2053" width="10" style="1" customWidth="1"/>
-    <col min="2054" max="2054" width="20" style="1" customWidth="1"/>
-    <col min="2055" max="2055" width="27" style="1" customWidth="1"/>
-    <col min="2056" max="2056" width="56.77734375" style="1" customWidth="1"/>
-    <col min="2057" max="2305" width="9" style="1"/>
-    <col min="2306" max="2306" width="25.21875" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="27.44140625" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="23.109375" style="1" customWidth="1"/>
-    <col min="2309" max="2309" width="10" style="1" customWidth="1"/>
-    <col min="2310" max="2310" width="20" style="1" customWidth="1"/>
-    <col min="2311" max="2311" width="27" style="1" customWidth="1"/>
-    <col min="2312" max="2312" width="56.77734375" style="1" customWidth="1"/>
-    <col min="2313" max="2561" width="9" style="1"/>
-    <col min="2562" max="2562" width="25.21875" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="27.44140625" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="23.109375" style="1" customWidth="1"/>
-    <col min="2565" max="2565" width="10" style="1" customWidth="1"/>
-    <col min="2566" max="2566" width="20" style="1" customWidth="1"/>
-    <col min="2567" max="2567" width="27" style="1" customWidth="1"/>
-    <col min="2568" max="2568" width="56.77734375" style="1" customWidth="1"/>
-    <col min="2569" max="2817" width="9" style="1"/>
-    <col min="2818" max="2818" width="25.21875" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="27.44140625" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="23.109375" style="1" customWidth="1"/>
-    <col min="2821" max="2821" width="10" style="1" customWidth="1"/>
-    <col min="2822" max="2822" width="20" style="1" customWidth="1"/>
-    <col min="2823" max="2823" width="27" style="1" customWidth="1"/>
-    <col min="2824" max="2824" width="56.77734375" style="1" customWidth="1"/>
-    <col min="2825" max="3073" width="9" style="1"/>
-    <col min="3074" max="3074" width="25.21875" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="27.44140625" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="23.109375" style="1" customWidth="1"/>
-    <col min="3077" max="3077" width="10" style="1" customWidth="1"/>
-    <col min="3078" max="3078" width="20" style="1" customWidth="1"/>
-    <col min="3079" max="3079" width="27" style="1" customWidth="1"/>
-    <col min="3080" max="3080" width="56.77734375" style="1" customWidth="1"/>
-    <col min="3081" max="3329" width="9" style="1"/>
-    <col min="3330" max="3330" width="25.21875" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="27.44140625" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="23.109375" style="1" customWidth="1"/>
-    <col min="3333" max="3333" width="10" style="1" customWidth="1"/>
-    <col min="3334" max="3334" width="20" style="1" customWidth="1"/>
-    <col min="3335" max="3335" width="27" style="1" customWidth="1"/>
-    <col min="3336" max="3336" width="56.77734375" style="1" customWidth="1"/>
-    <col min="3337" max="3585" width="9" style="1"/>
-    <col min="3586" max="3586" width="25.21875" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="27.44140625" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="23.109375" style="1" customWidth="1"/>
-    <col min="3589" max="3589" width="10" style="1" customWidth="1"/>
-    <col min="3590" max="3590" width="20" style="1" customWidth="1"/>
-    <col min="3591" max="3591" width="27" style="1" customWidth="1"/>
-    <col min="3592" max="3592" width="56.77734375" style="1" customWidth="1"/>
-    <col min="3593" max="3841" width="9" style="1"/>
-    <col min="3842" max="3842" width="25.21875" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="27.44140625" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="23.109375" style="1" customWidth="1"/>
-    <col min="3845" max="3845" width="10" style="1" customWidth="1"/>
-    <col min="3846" max="3846" width="20" style="1" customWidth="1"/>
-    <col min="3847" max="3847" width="27" style="1" customWidth="1"/>
-    <col min="3848" max="3848" width="56.77734375" style="1" customWidth="1"/>
-    <col min="3849" max="4097" width="9" style="1"/>
-    <col min="4098" max="4098" width="25.21875" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="27.44140625" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="23.109375" style="1" customWidth="1"/>
-    <col min="4101" max="4101" width="10" style="1" customWidth="1"/>
-    <col min="4102" max="4102" width="20" style="1" customWidth="1"/>
-    <col min="4103" max="4103" width="27" style="1" customWidth="1"/>
-    <col min="4104" max="4104" width="56.77734375" style="1" customWidth="1"/>
-    <col min="4105" max="4353" width="9" style="1"/>
-    <col min="4354" max="4354" width="25.21875" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="27.44140625" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="23.109375" style="1" customWidth="1"/>
-    <col min="4357" max="4357" width="10" style="1" customWidth="1"/>
-    <col min="4358" max="4358" width="20" style="1" customWidth="1"/>
-    <col min="4359" max="4359" width="27" style="1" customWidth="1"/>
-    <col min="4360" max="4360" width="56.77734375" style="1" customWidth="1"/>
-    <col min="4361" max="4609" width="9" style="1"/>
-    <col min="4610" max="4610" width="25.21875" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="27.44140625" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="23.109375" style="1" customWidth="1"/>
-    <col min="4613" max="4613" width="10" style="1" customWidth="1"/>
-    <col min="4614" max="4614" width="20" style="1" customWidth="1"/>
-    <col min="4615" max="4615" width="27" style="1" customWidth="1"/>
-    <col min="4616" max="4616" width="56.77734375" style="1" customWidth="1"/>
-    <col min="4617" max="4865" width="9" style="1"/>
-    <col min="4866" max="4866" width="25.21875" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="27.44140625" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="23.109375" style="1" customWidth="1"/>
-    <col min="4869" max="4869" width="10" style="1" customWidth="1"/>
-    <col min="4870" max="4870" width="20" style="1" customWidth="1"/>
-    <col min="4871" max="4871" width="27" style="1" customWidth="1"/>
-    <col min="4872" max="4872" width="56.77734375" style="1" customWidth="1"/>
-    <col min="4873" max="5121" width="9" style="1"/>
-    <col min="5122" max="5122" width="25.21875" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="27.44140625" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="23.109375" style="1" customWidth="1"/>
-    <col min="5125" max="5125" width="10" style="1" customWidth="1"/>
-    <col min="5126" max="5126" width="20" style="1" customWidth="1"/>
-    <col min="5127" max="5127" width="27" style="1" customWidth="1"/>
-    <col min="5128" max="5128" width="56.77734375" style="1" customWidth="1"/>
-    <col min="5129" max="5377" width="9" style="1"/>
-    <col min="5378" max="5378" width="25.21875" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="27.44140625" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="23.109375" style="1" customWidth="1"/>
-    <col min="5381" max="5381" width="10" style="1" customWidth="1"/>
-    <col min="5382" max="5382" width="20" style="1" customWidth="1"/>
-    <col min="5383" max="5383" width="27" style="1" customWidth="1"/>
-    <col min="5384" max="5384" width="56.77734375" style="1" customWidth="1"/>
-    <col min="5385" max="5633" width="9" style="1"/>
-    <col min="5634" max="5634" width="25.21875" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="27.44140625" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="23.109375" style="1" customWidth="1"/>
-    <col min="5637" max="5637" width="10" style="1" customWidth="1"/>
-    <col min="5638" max="5638" width="20" style="1" customWidth="1"/>
-    <col min="5639" max="5639" width="27" style="1" customWidth="1"/>
-    <col min="5640" max="5640" width="56.77734375" style="1" customWidth="1"/>
-    <col min="5641" max="5889" width="9" style="1"/>
-    <col min="5890" max="5890" width="25.21875" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="27.44140625" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="23.109375" style="1" customWidth="1"/>
-    <col min="5893" max="5893" width="10" style="1" customWidth="1"/>
-    <col min="5894" max="5894" width="20" style="1" customWidth="1"/>
-    <col min="5895" max="5895" width="27" style="1" customWidth="1"/>
-    <col min="5896" max="5896" width="56.77734375" style="1" customWidth="1"/>
-    <col min="5897" max="6145" width="9" style="1"/>
-    <col min="6146" max="6146" width="25.21875" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="27.44140625" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="23.109375" style="1" customWidth="1"/>
-    <col min="6149" max="6149" width="10" style="1" customWidth="1"/>
-    <col min="6150" max="6150" width="20" style="1" customWidth="1"/>
-    <col min="6151" max="6151" width="27" style="1" customWidth="1"/>
-    <col min="6152" max="6152" width="56.77734375" style="1" customWidth="1"/>
-    <col min="6153" max="6401" width="9" style="1"/>
-    <col min="6402" max="6402" width="25.21875" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="27.44140625" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="23.109375" style="1" customWidth="1"/>
-    <col min="6405" max="6405" width="10" style="1" customWidth="1"/>
-    <col min="6406" max="6406" width="20" style="1" customWidth="1"/>
-    <col min="6407" max="6407" width="27" style="1" customWidth="1"/>
-    <col min="6408" max="6408" width="56.77734375" style="1" customWidth="1"/>
-    <col min="6409" max="6657" width="9" style="1"/>
-    <col min="6658" max="6658" width="25.21875" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="27.44140625" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="23.109375" style="1" customWidth="1"/>
-    <col min="6661" max="6661" width="10" style="1" customWidth="1"/>
-    <col min="6662" max="6662" width="20" style="1" customWidth="1"/>
-    <col min="6663" max="6663" width="27" style="1" customWidth="1"/>
-    <col min="6664" max="6664" width="56.77734375" style="1" customWidth="1"/>
-    <col min="6665" max="6913" width="9" style="1"/>
-    <col min="6914" max="6914" width="25.21875" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="27.44140625" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="23.109375" style="1" customWidth="1"/>
-    <col min="6917" max="6917" width="10" style="1" customWidth="1"/>
-    <col min="6918" max="6918" width="20" style="1" customWidth="1"/>
-    <col min="6919" max="6919" width="27" style="1" customWidth="1"/>
-    <col min="6920" max="6920" width="56.77734375" style="1" customWidth="1"/>
-    <col min="6921" max="7169" width="9" style="1"/>
-    <col min="7170" max="7170" width="25.21875" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="27.44140625" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="23.109375" style="1" customWidth="1"/>
-    <col min="7173" max="7173" width="10" style="1" customWidth="1"/>
-    <col min="7174" max="7174" width="20" style="1" customWidth="1"/>
-    <col min="7175" max="7175" width="27" style="1" customWidth="1"/>
-    <col min="7176" max="7176" width="56.77734375" style="1" customWidth="1"/>
-    <col min="7177" max="7425" width="9" style="1"/>
-    <col min="7426" max="7426" width="25.21875" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="27.44140625" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="23.109375" style="1" customWidth="1"/>
-    <col min="7429" max="7429" width="10" style="1" customWidth="1"/>
-    <col min="7430" max="7430" width="20" style="1" customWidth="1"/>
-    <col min="7431" max="7431" width="27" style="1" customWidth="1"/>
-    <col min="7432" max="7432" width="56.77734375" style="1" customWidth="1"/>
-    <col min="7433" max="7681" width="9" style="1"/>
-    <col min="7682" max="7682" width="25.21875" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="27.44140625" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="23.109375" style="1" customWidth="1"/>
-    <col min="7685" max="7685" width="10" style="1" customWidth="1"/>
-    <col min="7686" max="7686" width="20" style="1" customWidth="1"/>
-    <col min="7687" max="7687" width="27" style="1" customWidth="1"/>
-    <col min="7688" max="7688" width="56.77734375" style="1" customWidth="1"/>
-    <col min="7689" max="7937" width="9" style="1"/>
-    <col min="7938" max="7938" width="25.21875" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="27.44140625" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="23.109375" style="1" customWidth="1"/>
-    <col min="7941" max="7941" width="10" style="1" customWidth="1"/>
-    <col min="7942" max="7942" width="20" style="1" customWidth="1"/>
-    <col min="7943" max="7943" width="27" style="1" customWidth="1"/>
-    <col min="7944" max="7944" width="56.77734375" style="1" customWidth="1"/>
-    <col min="7945" max="8193" width="9" style="1"/>
-    <col min="8194" max="8194" width="25.21875" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="27.44140625" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="23.109375" style="1" customWidth="1"/>
-    <col min="8197" max="8197" width="10" style="1" customWidth="1"/>
-    <col min="8198" max="8198" width="20" style="1" customWidth="1"/>
-    <col min="8199" max="8199" width="27" style="1" customWidth="1"/>
-    <col min="8200" max="8200" width="56.77734375" style="1" customWidth="1"/>
-    <col min="8201" max="8449" width="9" style="1"/>
-    <col min="8450" max="8450" width="25.21875" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="27.44140625" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="23.109375" style="1" customWidth="1"/>
-    <col min="8453" max="8453" width="10" style="1" customWidth="1"/>
-    <col min="8454" max="8454" width="20" style="1" customWidth="1"/>
-    <col min="8455" max="8455" width="27" style="1" customWidth="1"/>
-    <col min="8456" max="8456" width="56.77734375" style="1" customWidth="1"/>
-    <col min="8457" max="8705" width="9" style="1"/>
-    <col min="8706" max="8706" width="25.21875" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="27.44140625" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="23.109375" style="1" customWidth="1"/>
-    <col min="8709" max="8709" width="10" style="1" customWidth="1"/>
-    <col min="8710" max="8710" width="20" style="1" customWidth="1"/>
-    <col min="8711" max="8711" width="27" style="1" customWidth="1"/>
-    <col min="8712" max="8712" width="56.77734375" style="1" customWidth="1"/>
-    <col min="8713" max="8961" width="9" style="1"/>
-    <col min="8962" max="8962" width="25.21875" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="27.44140625" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="23.109375" style="1" customWidth="1"/>
-    <col min="8965" max="8965" width="10" style="1" customWidth="1"/>
-    <col min="8966" max="8966" width="20" style="1" customWidth="1"/>
-    <col min="8967" max="8967" width="27" style="1" customWidth="1"/>
-    <col min="8968" max="8968" width="56.77734375" style="1" customWidth="1"/>
-    <col min="8969" max="9217" width="9" style="1"/>
-    <col min="9218" max="9218" width="25.21875" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="27.44140625" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="23.109375" style="1" customWidth="1"/>
-    <col min="9221" max="9221" width="10" style="1" customWidth="1"/>
-    <col min="9222" max="9222" width="20" style="1" customWidth="1"/>
-    <col min="9223" max="9223" width="27" style="1" customWidth="1"/>
-    <col min="9224" max="9224" width="56.77734375" style="1" customWidth="1"/>
-    <col min="9225" max="9473" width="9" style="1"/>
-    <col min="9474" max="9474" width="25.21875" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="27.44140625" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="23.109375" style="1" customWidth="1"/>
-    <col min="9477" max="9477" width="10" style="1" customWidth="1"/>
-    <col min="9478" max="9478" width="20" style="1" customWidth="1"/>
-    <col min="9479" max="9479" width="27" style="1" customWidth="1"/>
-    <col min="9480" max="9480" width="56.77734375" style="1" customWidth="1"/>
-    <col min="9481" max="9729" width="9" style="1"/>
-    <col min="9730" max="9730" width="25.21875" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="27.44140625" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="23.109375" style="1" customWidth="1"/>
-    <col min="9733" max="9733" width="10" style="1" customWidth="1"/>
-    <col min="9734" max="9734" width="20" style="1" customWidth="1"/>
-    <col min="9735" max="9735" width="27" style="1" customWidth="1"/>
-    <col min="9736" max="9736" width="56.77734375" style="1" customWidth="1"/>
-    <col min="9737" max="9985" width="9" style="1"/>
-    <col min="9986" max="9986" width="25.21875" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="27.44140625" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="23.109375" style="1" customWidth="1"/>
-    <col min="9989" max="9989" width="10" style="1" customWidth="1"/>
-    <col min="9990" max="9990" width="20" style="1" customWidth="1"/>
-    <col min="9991" max="9991" width="27" style="1" customWidth="1"/>
-    <col min="9992" max="9992" width="56.77734375" style="1" customWidth="1"/>
-    <col min="9993" max="10241" width="9" style="1"/>
-    <col min="10242" max="10242" width="25.21875" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="27.44140625" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="23.109375" style="1" customWidth="1"/>
-    <col min="10245" max="10245" width="10" style="1" customWidth="1"/>
-    <col min="10246" max="10246" width="20" style="1" customWidth="1"/>
-    <col min="10247" max="10247" width="27" style="1" customWidth="1"/>
-    <col min="10248" max="10248" width="56.77734375" style="1" customWidth="1"/>
-    <col min="10249" max="10497" width="9" style="1"/>
-    <col min="10498" max="10498" width="25.21875" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="27.44140625" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="23.109375" style="1" customWidth="1"/>
-    <col min="10501" max="10501" width="10" style="1" customWidth="1"/>
-    <col min="10502" max="10502" width="20" style="1" customWidth="1"/>
-    <col min="10503" max="10503" width="27" style="1" customWidth="1"/>
-    <col min="10504" max="10504" width="56.77734375" style="1" customWidth="1"/>
-    <col min="10505" max="10753" width="9" style="1"/>
-    <col min="10754" max="10754" width="25.21875" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="27.44140625" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="23.109375" style="1" customWidth="1"/>
-    <col min="10757" max="10757" width="10" style="1" customWidth="1"/>
-    <col min="10758" max="10758" width="20" style="1" customWidth="1"/>
-    <col min="10759" max="10759" width="27" style="1" customWidth="1"/>
-    <col min="10760" max="10760" width="56.77734375" style="1" customWidth="1"/>
-    <col min="10761" max="11009" width="9" style="1"/>
-    <col min="11010" max="11010" width="25.21875" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="27.44140625" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="23.109375" style="1" customWidth="1"/>
-    <col min="11013" max="11013" width="10" style="1" customWidth="1"/>
-    <col min="11014" max="11014" width="20" style="1" customWidth="1"/>
-    <col min="11015" max="11015" width="27" style="1" customWidth="1"/>
-    <col min="11016" max="11016" width="56.77734375" style="1" customWidth="1"/>
-    <col min="11017" max="11265" width="9" style="1"/>
-    <col min="11266" max="11266" width="25.21875" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="27.44140625" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="23.109375" style="1" customWidth="1"/>
-    <col min="11269" max="11269" width="10" style="1" customWidth="1"/>
-    <col min="11270" max="11270" width="20" style="1" customWidth="1"/>
-    <col min="11271" max="11271" width="27" style="1" customWidth="1"/>
-    <col min="11272" max="11272" width="56.77734375" style="1" customWidth="1"/>
-    <col min="11273" max="11521" width="9" style="1"/>
-    <col min="11522" max="11522" width="25.21875" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="27.44140625" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="23.109375" style="1" customWidth="1"/>
-    <col min="11525" max="11525" width="10" style="1" customWidth="1"/>
-    <col min="11526" max="11526" width="20" style="1" customWidth="1"/>
-    <col min="11527" max="11527" width="27" style="1" customWidth="1"/>
-    <col min="11528" max="11528" width="56.77734375" style="1" customWidth="1"/>
-    <col min="11529" max="11777" width="9" style="1"/>
-    <col min="11778" max="11778" width="25.21875" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="27.44140625" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="23.109375" style="1" customWidth="1"/>
-    <col min="11781" max="11781" width="10" style="1" customWidth="1"/>
-    <col min="11782" max="11782" width="20" style="1" customWidth="1"/>
-    <col min="11783" max="11783" width="27" style="1" customWidth="1"/>
-    <col min="11784" max="11784" width="56.77734375" style="1" customWidth="1"/>
-    <col min="11785" max="12033" width="9" style="1"/>
-    <col min="12034" max="12034" width="25.21875" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="27.44140625" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="23.109375" style="1" customWidth="1"/>
-    <col min="12037" max="12037" width="10" style="1" customWidth="1"/>
-    <col min="12038" max="12038" width="20" style="1" customWidth="1"/>
-    <col min="12039" max="12039" width="27" style="1" customWidth="1"/>
-    <col min="12040" max="12040" width="56.77734375" style="1" customWidth="1"/>
-    <col min="12041" max="12289" width="9" style="1"/>
-    <col min="12290" max="12290" width="25.21875" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="27.44140625" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="23.109375" style="1" customWidth="1"/>
-    <col min="12293" max="12293" width="10" style="1" customWidth="1"/>
-    <col min="12294" max="12294" width="20" style="1" customWidth="1"/>
-    <col min="12295" max="12295" width="27" style="1" customWidth="1"/>
-    <col min="12296" max="12296" width="56.77734375" style="1" customWidth="1"/>
-    <col min="12297" max="12545" width="9" style="1"/>
-    <col min="12546" max="12546" width="25.21875" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="27.44140625" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="23.109375" style="1" customWidth="1"/>
-    <col min="12549" max="12549" width="10" style="1" customWidth="1"/>
-    <col min="12550" max="12550" width="20" style="1" customWidth="1"/>
-    <col min="12551" max="12551" width="27" style="1" customWidth="1"/>
-    <col min="12552" max="12552" width="56.77734375" style="1" customWidth="1"/>
-    <col min="12553" max="12801" width="9" style="1"/>
-    <col min="12802" max="12802" width="25.21875" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="27.44140625" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="23.109375" style="1" customWidth="1"/>
-    <col min="12805" max="12805" width="10" style="1" customWidth="1"/>
-    <col min="12806" max="12806" width="20" style="1" customWidth="1"/>
-    <col min="12807" max="12807" width="27" style="1" customWidth="1"/>
-    <col min="12808" max="12808" width="56.77734375" style="1" customWidth="1"/>
-    <col min="12809" max="13057" width="9" style="1"/>
-    <col min="13058" max="13058" width="25.21875" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="27.44140625" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="23.109375" style="1" customWidth="1"/>
-    <col min="13061" max="13061" width="10" style="1" customWidth="1"/>
-    <col min="13062" max="13062" width="20" style="1" customWidth="1"/>
-    <col min="13063" max="13063" width="27" style="1" customWidth="1"/>
-    <col min="13064" max="13064" width="56.77734375" style="1" customWidth="1"/>
-    <col min="13065" max="13313" width="9" style="1"/>
-    <col min="13314" max="13314" width="25.21875" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="27.44140625" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="23.109375" style="1" customWidth="1"/>
-    <col min="13317" max="13317" width="10" style="1" customWidth="1"/>
-    <col min="13318" max="13318" width="20" style="1" customWidth="1"/>
-    <col min="13319" max="13319" width="27" style="1" customWidth="1"/>
-    <col min="13320" max="13320" width="56.77734375" style="1" customWidth="1"/>
-    <col min="13321" max="13569" width="9" style="1"/>
-    <col min="13570" max="13570" width="25.21875" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="27.44140625" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="23.109375" style="1" customWidth="1"/>
-    <col min="13573" max="13573" width="10" style="1" customWidth="1"/>
-    <col min="13574" max="13574" width="20" style="1" customWidth="1"/>
-    <col min="13575" max="13575" width="27" style="1" customWidth="1"/>
-    <col min="13576" max="13576" width="56.77734375" style="1" customWidth="1"/>
-    <col min="13577" max="13825" width="9" style="1"/>
-    <col min="13826" max="13826" width="25.21875" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="27.44140625" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="23.109375" style="1" customWidth="1"/>
-    <col min="13829" max="13829" width="10" style="1" customWidth="1"/>
-    <col min="13830" max="13830" width="20" style="1" customWidth="1"/>
-    <col min="13831" max="13831" width="27" style="1" customWidth="1"/>
-    <col min="13832" max="13832" width="56.77734375" style="1" customWidth="1"/>
-    <col min="13833" max="14081" width="9" style="1"/>
-    <col min="14082" max="14082" width="25.21875" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="27.44140625" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="23.109375" style="1" customWidth="1"/>
-    <col min="14085" max="14085" width="10" style="1" customWidth="1"/>
-    <col min="14086" max="14086" width="20" style="1" customWidth="1"/>
-    <col min="14087" max="14087" width="27" style="1" customWidth="1"/>
-    <col min="14088" max="14088" width="56.77734375" style="1" customWidth="1"/>
-    <col min="14089" max="14337" width="9" style="1"/>
-    <col min="14338" max="14338" width="25.21875" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="27.44140625" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="23.109375" style="1" customWidth="1"/>
-    <col min="14341" max="14341" width="10" style="1" customWidth="1"/>
-    <col min="14342" max="14342" width="20" style="1" customWidth="1"/>
-    <col min="14343" max="14343" width="27" style="1" customWidth="1"/>
-    <col min="14344" max="14344" width="56.77734375" style="1" customWidth="1"/>
-    <col min="14345" max="14593" width="9" style="1"/>
-    <col min="14594" max="14594" width="25.21875" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="27.44140625" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="23.109375" style="1" customWidth="1"/>
-    <col min="14597" max="14597" width="10" style="1" customWidth="1"/>
-    <col min="14598" max="14598" width="20" style="1" customWidth="1"/>
-    <col min="14599" max="14599" width="27" style="1" customWidth="1"/>
-    <col min="14600" max="14600" width="56.77734375" style="1" customWidth="1"/>
-    <col min="14601" max="14849" width="9" style="1"/>
-    <col min="14850" max="14850" width="25.21875" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="27.44140625" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="23.109375" style="1" customWidth="1"/>
-    <col min="14853" max="14853" width="10" style="1" customWidth="1"/>
-    <col min="14854" max="14854" width="20" style="1" customWidth="1"/>
-    <col min="14855" max="14855" width="27" style="1" customWidth="1"/>
-    <col min="14856" max="14856" width="56.77734375" style="1" customWidth="1"/>
-    <col min="14857" max="15105" width="9" style="1"/>
-    <col min="15106" max="15106" width="25.21875" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="27.44140625" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="23.109375" style="1" customWidth="1"/>
-    <col min="15109" max="15109" width="10" style="1" customWidth="1"/>
-    <col min="15110" max="15110" width="20" style="1" customWidth="1"/>
-    <col min="15111" max="15111" width="27" style="1" customWidth="1"/>
-    <col min="15112" max="15112" width="56.77734375" style="1" customWidth="1"/>
-    <col min="15113" max="15361" width="9" style="1"/>
-    <col min="15362" max="15362" width="25.21875" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="27.44140625" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="23.109375" style="1" customWidth="1"/>
-    <col min="15365" max="15365" width="10" style="1" customWidth="1"/>
-    <col min="15366" max="15366" width="20" style="1" customWidth="1"/>
-    <col min="15367" max="15367" width="27" style="1" customWidth="1"/>
-    <col min="15368" max="15368" width="56.77734375" style="1" customWidth="1"/>
-    <col min="15369" max="15617" width="9" style="1"/>
-    <col min="15618" max="15618" width="25.21875" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="27.44140625" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="23.109375" style="1" customWidth="1"/>
-    <col min="15621" max="15621" width="10" style="1" customWidth="1"/>
-    <col min="15622" max="15622" width="20" style="1" customWidth="1"/>
-    <col min="15623" max="15623" width="27" style="1" customWidth="1"/>
-    <col min="15624" max="15624" width="56.77734375" style="1" customWidth="1"/>
-    <col min="15625" max="15873" width="9" style="1"/>
-    <col min="15874" max="15874" width="25.21875" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="27.44140625" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="23.109375" style="1" customWidth="1"/>
-    <col min="15877" max="15877" width="10" style="1" customWidth="1"/>
-    <col min="15878" max="15878" width="20" style="1" customWidth="1"/>
-    <col min="15879" max="15879" width="27" style="1" customWidth="1"/>
-    <col min="15880" max="15880" width="56.77734375" style="1" customWidth="1"/>
-    <col min="15881" max="16129" width="9" style="1"/>
-    <col min="16130" max="16130" width="25.21875" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="27.44140625" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="23.109375" style="1" customWidth="1"/>
-    <col min="16133" max="16133" width="10" style="1" customWidth="1"/>
-    <col min="16134" max="16134" width="20" style="1" customWidth="1"/>
-    <col min="16135" max="16135" width="27" style="1" customWidth="1"/>
-    <col min="16136" max="16136" width="56.77734375" style="1" customWidth="1"/>
-    <col min="16137" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="56.7109375" style="1" customWidth="1"/>
+    <col min="9" max="216" width="9" style="1"/>
+    <col min="217" max="217" width="25.28515625" style="1" customWidth="1"/>
+    <col min="218" max="218" width="27.42578125" style="1" customWidth="1"/>
+    <col min="219" max="219" width="23.140625" style="1" customWidth="1"/>
+    <col min="220" max="220" width="10" style="1" customWidth="1"/>
+    <col min="221" max="221" width="20" style="1" customWidth="1"/>
+    <col min="222" max="222" width="27" style="1" customWidth="1"/>
+    <col min="223" max="223" width="56.7109375" style="1" customWidth="1"/>
+    <col min="224" max="472" width="9" style="1"/>
+    <col min="473" max="473" width="25.28515625" style="1" customWidth="1"/>
+    <col min="474" max="474" width="27.42578125" style="1" customWidth="1"/>
+    <col min="475" max="475" width="23.140625" style="1" customWidth="1"/>
+    <col min="476" max="476" width="10" style="1" customWidth="1"/>
+    <col min="477" max="477" width="20" style="1" customWidth="1"/>
+    <col min="478" max="478" width="27" style="1" customWidth="1"/>
+    <col min="479" max="479" width="56.7109375" style="1" customWidth="1"/>
+    <col min="480" max="728" width="9" style="1"/>
+    <col min="729" max="729" width="25.28515625" style="1" customWidth="1"/>
+    <col min="730" max="730" width="27.42578125" style="1" customWidth="1"/>
+    <col min="731" max="731" width="23.140625" style="1" customWidth="1"/>
+    <col min="732" max="732" width="10" style="1" customWidth="1"/>
+    <col min="733" max="733" width="20" style="1" customWidth="1"/>
+    <col min="734" max="734" width="27" style="1" customWidth="1"/>
+    <col min="735" max="735" width="56.7109375" style="1" customWidth="1"/>
+    <col min="736" max="984" width="9" style="1"/>
+    <col min="985" max="985" width="25.28515625" style="1" customWidth="1"/>
+    <col min="986" max="986" width="27.42578125" style="1" customWidth="1"/>
+    <col min="987" max="987" width="23.140625" style="1" customWidth="1"/>
+    <col min="988" max="988" width="10" style="1" customWidth="1"/>
+    <col min="989" max="989" width="20" style="1" customWidth="1"/>
+    <col min="990" max="990" width="27" style="1" customWidth="1"/>
+    <col min="991" max="991" width="56.7109375" style="1" customWidth="1"/>
+    <col min="992" max="1240" width="9" style="1"/>
+    <col min="1241" max="1241" width="25.28515625" style="1" customWidth="1"/>
+    <col min="1242" max="1242" width="27.42578125" style="1" customWidth="1"/>
+    <col min="1243" max="1243" width="23.140625" style="1" customWidth="1"/>
+    <col min="1244" max="1244" width="10" style="1" customWidth="1"/>
+    <col min="1245" max="1245" width="20" style="1" customWidth="1"/>
+    <col min="1246" max="1246" width="27" style="1" customWidth="1"/>
+    <col min="1247" max="1247" width="56.7109375" style="1" customWidth="1"/>
+    <col min="1248" max="1496" width="9" style="1"/>
+    <col min="1497" max="1497" width="25.28515625" style="1" customWidth="1"/>
+    <col min="1498" max="1498" width="27.42578125" style="1" customWidth="1"/>
+    <col min="1499" max="1499" width="23.140625" style="1" customWidth="1"/>
+    <col min="1500" max="1500" width="10" style="1" customWidth="1"/>
+    <col min="1501" max="1501" width="20" style="1" customWidth="1"/>
+    <col min="1502" max="1502" width="27" style="1" customWidth="1"/>
+    <col min="1503" max="1503" width="56.7109375" style="1" customWidth="1"/>
+    <col min="1504" max="1752" width="9" style="1"/>
+    <col min="1753" max="1753" width="25.28515625" style="1" customWidth="1"/>
+    <col min="1754" max="1754" width="27.42578125" style="1" customWidth="1"/>
+    <col min="1755" max="1755" width="23.140625" style="1" customWidth="1"/>
+    <col min="1756" max="1756" width="10" style="1" customWidth="1"/>
+    <col min="1757" max="1757" width="20" style="1" customWidth="1"/>
+    <col min="1758" max="1758" width="27" style="1" customWidth="1"/>
+    <col min="1759" max="1759" width="56.7109375" style="1" customWidth="1"/>
+    <col min="1760" max="2008" width="9" style="1"/>
+    <col min="2009" max="2009" width="25.28515625" style="1" customWidth="1"/>
+    <col min="2010" max="2010" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2011" max="2011" width="23.140625" style="1" customWidth="1"/>
+    <col min="2012" max="2012" width="10" style="1" customWidth="1"/>
+    <col min="2013" max="2013" width="20" style="1" customWidth="1"/>
+    <col min="2014" max="2014" width="27" style="1" customWidth="1"/>
+    <col min="2015" max="2015" width="56.7109375" style="1" customWidth="1"/>
+    <col min="2016" max="2264" width="9" style="1"/>
+    <col min="2265" max="2265" width="25.28515625" style="1" customWidth="1"/>
+    <col min="2266" max="2266" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2267" max="2267" width="23.140625" style="1" customWidth="1"/>
+    <col min="2268" max="2268" width="10" style="1" customWidth="1"/>
+    <col min="2269" max="2269" width="20" style="1" customWidth="1"/>
+    <col min="2270" max="2270" width="27" style="1" customWidth="1"/>
+    <col min="2271" max="2271" width="56.7109375" style="1" customWidth="1"/>
+    <col min="2272" max="2520" width="9" style="1"/>
+    <col min="2521" max="2521" width="25.28515625" style="1" customWidth="1"/>
+    <col min="2522" max="2522" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2523" max="2523" width="23.140625" style="1" customWidth="1"/>
+    <col min="2524" max="2524" width="10" style="1" customWidth="1"/>
+    <col min="2525" max="2525" width="20" style="1" customWidth="1"/>
+    <col min="2526" max="2526" width="27" style="1" customWidth="1"/>
+    <col min="2527" max="2527" width="56.7109375" style="1" customWidth="1"/>
+    <col min="2528" max="2776" width="9" style="1"/>
+    <col min="2777" max="2777" width="25.28515625" style="1" customWidth="1"/>
+    <col min="2778" max="2778" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2779" max="2779" width="23.140625" style="1" customWidth="1"/>
+    <col min="2780" max="2780" width="10" style="1" customWidth="1"/>
+    <col min="2781" max="2781" width="20" style="1" customWidth="1"/>
+    <col min="2782" max="2782" width="27" style="1" customWidth="1"/>
+    <col min="2783" max="2783" width="56.7109375" style="1" customWidth="1"/>
+    <col min="2784" max="3032" width="9" style="1"/>
+    <col min="3033" max="3033" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3034" max="3034" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3035" max="3035" width="23.140625" style="1" customWidth="1"/>
+    <col min="3036" max="3036" width="10" style="1" customWidth="1"/>
+    <col min="3037" max="3037" width="20" style="1" customWidth="1"/>
+    <col min="3038" max="3038" width="27" style="1" customWidth="1"/>
+    <col min="3039" max="3039" width="56.7109375" style="1" customWidth="1"/>
+    <col min="3040" max="3288" width="9" style="1"/>
+    <col min="3289" max="3289" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3290" max="3290" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3291" max="3291" width="23.140625" style="1" customWidth="1"/>
+    <col min="3292" max="3292" width="10" style="1" customWidth="1"/>
+    <col min="3293" max="3293" width="20" style="1" customWidth="1"/>
+    <col min="3294" max="3294" width="27" style="1" customWidth="1"/>
+    <col min="3295" max="3295" width="56.7109375" style="1" customWidth="1"/>
+    <col min="3296" max="3544" width="9" style="1"/>
+    <col min="3545" max="3545" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3546" max="3546" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3547" max="3547" width="23.140625" style="1" customWidth="1"/>
+    <col min="3548" max="3548" width="10" style="1" customWidth="1"/>
+    <col min="3549" max="3549" width="20" style="1" customWidth="1"/>
+    <col min="3550" max="3550" width="27" style="1" customWidth="1"/>
+    <col min="3551" max="3551" width="56.7109375" style="1" customWidth="1"/>
+    <col min="3552" max="3800" width="9" style="1"/>
+    <col min="3801" max="3801" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3802" max="3802" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3803" max="3803" width="23.140625" style="1" customWidth="1"/>
+    <col min="3804" max="3804" width="10" style="1" customWidth="1"/>
+    <col min="3805" max="3805" width="20" style="1" customWidth="1"/>
+    <col min="3806" max="3806" width="27" style="1" customWidth="1"/>
+    <col min="3807" max="3807" width="56.7109375" style="1" customWidth="1"/>
+    <col min="3808" max="4056" width="9" style="1"/>
+    <col min="4057" max="4057" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4058" max="4058" width="27.42578125" style="1" customWidth="1"/>
+    <col min="4059" max="4059" width="23.140625" style="1" customWidth="1"/>
+    <col min="4060" max="4060" width="10" style="1" customWidth="1"/>
+    <col min="4061" max="4061" width="20" style="1" customWidth="1"/>
+    <col min="4062" max="4062" width="27" style="1" customWidth="1"/>
+    <col min="4063" max="4063" width="56.7109375" style="1" customWidth="1"/>
+    <col min="4064" max="4312" width="9" style="1"/>
+    <col min="4313" max="4313" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4314" max="4314" width="27.42578125" style="1" customWidth="1"/>
+    <col min="4315" max="4315" width="23.140625" style="1" customWidth="1"/>
+    <col min="4316" max="4316" width="10" style="1" customWidth="1"/>
+    <col min="4317" max="4317" width="20" style="1" customWidth="1"/>
+    <col min="4318" max="4318" width="27" style="1" customWidth="1"/>
+    <col min="4319" max="4319" width="56.7109375" style="1" customWidth="1"/>
+    <col min="4320" max="4568" width="9" style="1"/>
+    <col min="4569" max="4569" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4570" max="4570" width="27.42578125" style="1" customWidth="1"/>
+    <col min="4571" max="4571" width="23.140625" style="1" customWidth="1"/>
+    <col min="4572" max="4572" width="10" style="1" customWidth="1"/>
+    <col min="4573" max="4573" width="20" style="1" customWidth="1"/>
+    <col min="4574" max="4574" width="27" style="1" customWidth="1"/>
+    <col min="4575" max="4575" width="56.7109375" style="1" customWidth="1"/>
+    <col min="4576" max="4824" width="9" style="1"/>
+    <col min="4825" max="4825" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4826" max="4826" width="27.42578125" style="1" customWidth="1"/>
+    <col min="4827" max="4827" width="23.140625" style="1" customWidth="1"/>
+    <col min="4828" max="4828" width="10" style="1" customWidth="1"/>
+    <col min="4829" max="4829" width="20" style="1" customWidth="1"/>
+    <col min="4830" max="4830" width="27" style="1" customWidth="1"/>
+    <col min="4831" max="4831" width="56.7109375" style="1" customWidth="1"/>
+    <col min="4832" max="5080" width="9" style="1"/>
+    <col min="5081" max="5081" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5082" max="5082" width="27.42578125" style="1" customWidth="1"/>
+    <col min="5083" max="5083" width="23.140625" style="1" customWidth="1"/>
+    <col min="5084" max="5084" width="10" style="1" customWidth="1"/>
+    <col min="5085" max="5085" width="20" style="1" customWidth="1"/>
+    <col min="5086" max="5086" width="27" style="1" customWidth="1"/>
+    <col min="5087" max="5087" width="56.7109375" style="1" customWidth="1"/>
+    <col min="5088" max="5336" width="9" style="1"/>
+    <col min="5337" max="5337" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5338" max="5338" width="27.42578125" style="1" customWidth="1"/>
+    <col min="5339" max="5339" width="23.140625" style="1" customWidth="1"/>
+    <col min="5340" max="5340" width="10" style="1" customWidth="1"/>
+    <col min="5341" max="5341" width="20" style="1" customWidth="1"/>
+    <col min="5342" max="5342" width="27" style="1" customWidth="1"/>
+    <col min="5343" max="5343" width="56.7109375" style="1" customWidth="1"/>
+    <col min="5344" max="5592" width="9" style="1"/>
+    <col min="5593" max="5593" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5594" max="5594" width="27.42578125" style="1" customWidth="1"/>
+    <col min="5595" max="5595" width="23.140625" style="1" customWidth="1"/>
+    <col min="5596" max="5596" width="10" style="1" customWidth="1"/>
+    <col min="5597" max="5597" width="20" style="1" customWidth="1"/>
+    <col min="5598" max="5598" width="27" style="1" customWidth="1"/>
+    <col min="5599" max="5599" width="56.7109375" style="1" customWidth="1"/>
+    <col min="5600" max="5848" width="9" style="1"/>
+    <col min="5849" max="5849" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5850" max="5850" width="27.42578125" style="1" customWidth="1"/>
+    <col min="5851" max="5851" width="23.140625" style="1" customWidth="1"/>
+    <col min="5852" max="5852" width="10" style="1" customWidth="1"/>
+    <col min="5853" max="5853" width="20" style="1" customWidth="1"/>
+    <col min="5854" max="5854" width="27" style="1" customWidth="1"/>
+    <col min="5855" max="5855" width="56.7109375" style="1" customWidth="1"/>
+    <col min="5856" max="6104" width="9" style="1"/>
+    <col min="6105" max="6105" width="25.28515625" style="1" customWidth="1"/>
+    <col min="6106" max="6106" width="27.42578125" style="1" customWidth="1"/>
+    <col min="6107" max="6107" width="23.140625" style="1" customWidth="1"/>
+    <col min="6108" max="6108" width="10" style="1" customWidth="1"/>
+    <col min="6109" max="6109" width="20" style="1" customWidth="1"/>
+    <col min="6110" max="6110" width="27" style="1" customWidth="1"/>
+    <col min="6111" max="6111" width="56.7109375" style="1" customWidth="1"/>
+    <col min="6112" max="6360" width="9" style="1"/>
+    <col min="6361" max="6361" width="25.28515625" style="1" customWidth="1"/>
+    <col min="6362" max="6362" width="27.42578125" style="1" customWidth="1"/>
+    <col min="6363" max="6363" width="23.140625" style="1" customWidth="1"/>
+    <col min="6364" max="6364" width="10" style="1" customWidth="1"/>
+    <col min="6365" max="6365" width="20" style="1" customWidth="1"/>
+    <col min="6366" max="6366" width="27" style="1" customWidth="1"/>
+    <col min="6367" max="6367" width="56.7109375" style="1" customWidth="1"/>
+    <col min="6368" max="6616" width="9" style="1"/>
+    <col min="6617" max="6617" width="25.28515625" style="1" customWidth="1"/>
+    <col min="6618" max="6618" width="27.42578125" style="1" customWidth="1"/>
+    <col min="6619" max="6619" width="23.140625" style="1" customWidth="1"/>
+    <col min="6620" max="6620" width="10" style="1" customWidth="1"/>
+    <col min="6621" max="6621" width="20" style="1" customWidth="1"/>
+    <col min="6622" max="6622" width="27" style="1" customWidth="1"/>
+    <col min="6623" max="6623" width="56.7109375" style="1" customWidth="1"/>
+    <col min="6624" max="6872" width="9" style="1"/>
+    <col min="6873" max="6873" width="25.28515625" style="1" customWidth="1"/>
+    <col min="6874" max="6874" width="27.42578125" style="1" customWidth="1"/>
+    <col min="6875" max="6875" width="23.140625" style="1" customWidth="1"/>
+    <col min="6876" max="6876" width="10" style="1" customWidth="1"/>
+    <col min="6877" max="6877" width="20" style="1" customWidth="1"/>
+    <col min="6878" max="6878" width="27" style="1" customWidth="1"/>
+    <col min="6879" max="6879" width="56.7109375" style="1" customWidth="1"/>
+    <col min="6880" max="7128" width="9" style="1"/>
+    <col min="7129" max="7129" width="25.28515625" style="1" customWidth="1"/>
+    <col min="7130" max="7130" width="27.42578125" style="1" customWidth="1"/>
+    <col min="7131" max="7131" width="23.140625" style="1" customWidth="1"/>
+    <col min="7132" max="7132" width="10" style="1" customWidth="1"/>
+    <col min="7133" max="7133" width="20" style="1" customWidth="1"/>
+    <col min="7134" max="7134" width="27" style="1" customWidth="1"/>
+    <col min="7135" max="7135" width="56.7109375" style="1" customWidth="1"/>
+    <col min="7136" max="7384" width="9" style="1"/>
+    <col min="7385" max="7385" width="25.28515625" style="1" customWidth="1"/>
+    <col min="7386" max="7386" width="27.42578125" style="1" customWidth="1"/>
+    <col min="7387" max="7387" width="23.140625" style="1" customWidth="1"/>
+    <col min="7388" max="7388" width="10" style="1" customWidth="1"/>
+    <col min="7389" max="7389" width="20" style="1" customWidth="1"/>
+    <col min="7390" max="7390" width="27" style="1" customWidth="1"/>
+    <col min="7391" max="7391" width="56.7109375" style="1" customWidth="1"/>
+    <col min="7392" max="7640" width="9" style="1"/>
+    <col min="7641" max="7641" width="25.28515625" style="1" customWidth="1"/>
+    <col min="7642" max="7642" width="27.42578125" style="1" customWidth="1"/>
+    <col min="7643" max="7643" width="23.140625" style="1" customWidth="1"/>
+    <col min="7644" max="7644" width="10" style="1" customWidth="1"/>
+    <col min="7645" max="7645" width="20" style="1" customWidth="1"/>
+    <col min="7646" max="7646" width="27" style="1" customWidth="1"/>
+    <col min="7647" max="7647" width="56.7109375" style="1" customWidth="1"/>
+    <col min="7648" max="7896" width="9" style="1"/>
+    <col min="7897" max="7897" width="25.28515625" style="1" customWidth="1"/>
+    <col min="7898" max="7898" width="27.42578125" style="1" customWidth="1"/>
+    <col min="7899" max="7899" width="23.140625" style="1" customWidth="1"/>
+    <col min="7900" max="7900" width="10" style="1" customWidth="1"/>
+    <col min="7901" max="7901" width="20" style="1" customWidth="1"/>
+    <col min="7902" max="7902" width="27" style="1" customWidth="1"/>
+    <col min="7903" max="7903" width="56.7109375" style="1" customWidth="1"/>
+    <col min="7904" max="8152" width="9" style="1"/>
+    <col min="8153" max="8153" width="25.28515625" style="1" customWidth="1"/>
+    <col min="8154" max="8154" width="27.42578125" style="1" customWidth="1"/>
+    <col min="8155" max="8155" width="23.140625" style="1" customWidth="1"/>
+    <col min="8156" max="8156" width="10" style="1" customWidth="1"/>
+    <col min="8157" max="8157" width="20" style="1" customWidth="1"/>
+    <col min="8158" max="8158" width="27" style="1" customWidth="1"/>
+    <col min="8159" max="8159" width="56.7109375" style="1" customWidth="1"/>
+    <col min="8160" max="8408" width="9" style="1"/>
+    <col min="8409" max="8409" width="25.28515625" style="1" customWidth="1"/>
+    <col min="8410" max="8410" width="27.42578125" style="1" customWidth="1"/>
+    <col min="8411" max="8411" width="23.140625" style="1" customWidth="1"/>
+    <col min="8412" max="8412" width="10" style="1" customWidth="1"/>
+    <col min="8413" max="8413" width="20" style="1" customWidth="1"/>
+    <col min="8414" max="8414" width="27" style="1" customWidth="1"/>
+    <col min="8415" max="8415" width="56.7109375" style="1" customWidth="1"/>
+    <col min="8416" max="8664" width="9" style="1"/>
+    <col min="8665" max="8665" width="25.28515625" style="1" customWidth="1"/>
+    <col min="8666" max="8666" width="27.42578125" style="1" customWidth="1"/>
+    <col min="8667" max="8667" width="23.140625" style="1" customWidth="1"/>
+    <col min="8668" max="8668" width="10" style="1" customWidth="1"/>
+    <col min="8669" max="8669" width="20" style="1" customWidth="1"/>
+    <col min="8670" max="8670" width="27" style="1" customWidth="1"/>
+    <col min="8671" max="8671" width="56.7109375" style="1" customWidth="1"/>
+    <col min="8672" max="8920" width="9" style="1"/>
+    <col min="8921" max="8921" width="25.28515625" style="1" customWidth="1"/>
+    <col min="8922" max="8922" width="27.42578125" style="1" customWidth="1"/>
+    <col min="8923" max="8923" width="23.140625" style="1" customWidth="1"/>
+    <col min="8924" max="8924" width="10" style="1" customWidth="1"/>
+    <col min="8925" max="8925" width="20" style="1" customWidth="1"/>
+    <col min="8926" max="8926" width="27" style="1" customWidth="1"/>
+    <col min="8927" max="8927" width="56.7109375" style="1" customWidth="1"/>
+    <col min="8928" max="9176" width="9" style="1"/>
+    <col min="9177" max="9177" width="25.28515625" style="1" customWidth="1"/>
+    <col min="9178" max="9178" width="27.42578125" style="1" customWidth="1"/>
+    <col min="9179" max="9179" width="23.140625" style="1" customWidth="1"/>
+    <col min="9180" max="9180" width="10" style="1" customWidth="1"/>
+    <col min="9181" max="9181" width="20" style="1" customWidth="1"/>
+    <col min="9182" max="9182" width="27" style="1" customWidth="1"/>
+    <col min="9183" max="9183" width="56.7109375" style="1" customWidth="1"/>
+    <col min="9184" max="9432" width="9" style="1"/>
+    <col min="9433" max="9433" width="25.28515625" style="1" customWidth="1"/>
+    <col min="9434" max="9434" width="27.42578125" style="1" customWidth="1"/>
+    <col min="9435" max="9435" width="23.140625" style="1" customWidth="1"/>
+    <col min="9436" max="9436" width="10" style="1" customWidth="1"/>
+    <col min="9437" max="9437" width="20" style="1" customWidth="1"/>
+    <col min="9438" max="9438" width="27" style="1" customWidth="1"/>
+    <col min="9439" max="9439" width="56.7109375" style="1" customWidth="1"/>
+    <col min="9440" max="9688" width="9" style="1"/>
+    <col min="9689" max="9689" width="25.28515625" style="1" customWidth="1"/>
+    <col min="9690" max="9690" width="27.42578125" style="1" customWidth="1"/>
+    <col min="9691" max="9691" width="23.140625" style="1" customWidth="1"/>
+    <col min="9692" max="9692" width="10" style="1" customWidth="1"/>
+    <col min="9693" max="9693" width="20" style="1" customWidth="1"/>
+    <col min="9694" max="9694" width="27" style="1" customWidth="1"/>
+    <col min="9695" max="9695" width="56.7109375" style="1" customWidth="1"/>
+    <col min="9696" max="9944" width="9" style="1"/>
+    <col min="9945" max="9945" width="25.28515625" style="1" customWidth="1"/>
+    <col min="9946" max="9946" width="27.42578125" style="1" customWidth="1"/>
+    <col min="9947" max="9947" width="23.140625" style="1" customWidth="1"/>
+    <col min="9948" max="9948" width="10" style="1" customWidth="1"/>
+    <col min="9949" max="9949" width="20" style="1" customWidth="1"/>
+    <col min="9950" max="9950" width="27" style="1" customWidth="1"/>
+    <col min="9951" max="9951" width="56.7109375" style="1" customWidth="1"/>
+    <col min="9952" max="10200" width="9" style="1"/>
+    <col min="10201" max="10201" width="25.28515625" style="1" customWidth="1"/>
+    <col min="10202" max="10202" width="27.42578125" style="1" customWidth="1"/>
+    <col min="10203" max="10203" width="23.140625" style="1" customWidth="1"/>
+    <col min="10204" max="10204" width="10" style="1" customWidth="1"/>
+    <col min="10205" max="10205" width="20" style="1" customWidth="1"/>
+    <col min="10206" max="10206" width="27" style="1" customWidth="1"/>
+    <col min="10207" max="10207" width="56.7109375" style="1" customWidth="1"/>
+    <col min="10208" max="10456" width="9" style="1"/>
+    <col min="10457" max="10457" width="25.28515625" style="1" customWidth="1"/>
+    <col min="10458" max="10458" width="27.42578125" style="1" customWidth="1"/>
+    <col min="10459" max="10459" width="23.140625" style="1" customWidth="1"/>
+    <col min="10460" max="10460" width="10" style="1" customWidth="1"/>
+    <col min="10461" max="10461" width="20" style="1" customWidth="1"/>
+    <col min="10462" max="10462" width="27" style="1" customWidth="1"/>
+    <col min="10463" max="10463" width="56.7109375" style="1" customWidth="1"/>
+    <col min="10464" max="10712" width="9" style="1"/>
+    <col min="10713" max="10713" width="25.28515625" style="1" customWidth="1"/>
+    <col min="10714" max="10714" width="27.42578125" style="1" customWidth="1"/>
+    <col min="10715" max="10715" width="23.140625" style="1" customWidth="1"/>
+    <col min="10716" max="10716" width="10" style="1" customWidth="1"/>
+    <col min="10717" max="10717" width="20" style="1" customWidth="1"/>
+    <col min="10718" max="10718" width="27" style="1" customWidth="1"/>
+    <col min="10719" max="10719" width="56.7109375" style="1" customWidth="1"/>
+    <col min="10720" max="10968" width="9" style="1"/>
+    <col min="10969" max="10969" width="25.28515625" style="1" customWidth="1"/>
+    <col min="10970" max="10970" width="27.42578125" style="1" customWidth="1"/>
+    <col min="10971" max="10971" width="23.140625" style="1" customWidth="1"/>
+    <col min="10972" max="10972" width="10" style="1" customWidth="1"/>
+    <col min="10973" max="10973" width="20" style="1" customWidth="1"/>
+    <col min="10974" max="10974" width="27" style="1" customWidth="1"/>
+    <col min="10975" max="10975" width="56.7109375" style="1" customWidth="1"/>
+    <col min="10976" max="11224" width="9" style="1"/>
+    <col min="11225" max="11225" width="25.28515625" style="1" customWidth="1"/>
+    <col min="11226" max="11226" width="27.42578125" style="1" customWidth="1"/>
+    <col min="11227" max="11227" width="23.140625" style="1" customWidth="1"/>
+    <col min="11228" max="11228" width="10" style="1" customWidth="1"/>
+    <col min="11229" max="11229" width="20" style="1" customWidth="1"/>
+    <col min="11230" max="11230" width="27" style="1" customWidth="1"/>
+    <col min="11231" max="11231" width="56.7109375" style="1" customWidth="1"/>
+    <col min="11232" max="11480" width="9" style="1"/>
+    <col min="11481" max="11481" width="25.28515625" style="1" customWidth="1"/>
+    <col min="11482" max="11482" width="27.42578125" style="1" customWidth="1"/>
+    <col min="11483" max="11483" width="23.140625" style="1" customWidth="1"/>
+    <col min="11484" max="11484" width="10" style="1" customWidth="1"/>
+    <col min="11485" max="11485" width="20" style="1" customWidth="1"/>
+    <col min="11486" max="11486" width="27" style="1" customWidth="1"/>
+    <col min="11487" max="11487" width="56.7109375" style="1" customWidth="1"/>
+    <col min="11488" max="11736" width="9" style="1"/>
+    <col min="11737" max="11737" width="25.28515625" style="1" customWidth="1"/>
+    <col min="11738" max="11738" width="27.42578125" style="1" customWidth="1"/>
+    <col min="11739" max="11739" width="23.140625" style="1" customWidth="1"/>
+    <col min="11740" max="11740" width="10" style="1" customWidth="1"/>
+    <col min="11741" max="11741" width="20" style="1" customWidth="1"/>
+    <col min="11742" max="11742" width="27" style="1" customWidth="1"/>
+    <col min="11743" max="11743" width="56.7109375" style="1" customWidth="1"/>
+    <col min="11744" max="11992" width="9" style="1"/>
+    <col min="11993" max="11993" width="25.28515625" style="1" customWidth="1"/>
+    <col min="11994" max="11994" width="27.42578125" style="1" customWidth="1"/>
+    <col min="11995" max="11995" width="23.140625" style="1" customWidth="1"/>
+    <col min="11996" max="11996" width="10" style="1" customWidth="1"/>
+    <col min="11997" max="11997" width="20" style="1" customWidth="1"/>
+    <col min="11998" max="11998" width="27" style="1" customWidth="1"/>
+    <col min="11999" max="11999" width="56.7109375" style="1" customWidth="1"/>
+    <col min="12000" max="12248" width="9" style="1"/>
+    <col min="12249" max="12249" width="25.28515625" style="1" customWidth="1"/>
+    <col min="12250" max="12250" width="27.42578125" style="1" customWidth="1"/>
+    <col min="12251" max="12251" width="23.140625" style="1" customWidth="1"/>
+    <col min="12252" max="12252" width="10" style="1" customWidth="1"/>
+    <col min="12253" max="12253" width="20" style="1" customWidth="1"/>
+    <col min="12254" max="12254" width="27" style="1" customWidth="1"/>
+    <col min="12255" max="12255" width="56.7109375" style="1" customWidth="1"/>
+    <col min="12256" max="12504" width="9" style="1"/>
+    <col min="12505" max="12505" width="25.28515625" style="1" customWidth="1"/>
+    <col min="12506" max="12506" width="27.42578125" style="1" customWidth="1"/>
+    <col min="12507" max="12507" width="23.140625" style="1" customWidth="1"/>
+    <col min="12508" max="12508" width="10" style="1" customWidth="1"/>
+    <col min="12509" max="12509" width="20" style="1" customWidth="1"/>
+    <col min="12510" max="12510" width="27" style="1" customWidth="1"/>
+    <col min="12511" max="12511" width="56.7109375" style="1" customWidth="1"/>
+    <col min="12512" max="12760" width="9" style="1"/>
+    <col min="12761" max="12761" width="25.28515625" style="1" customWidth="1"/>
+    <col min="12762" max="12762" width="27.42578125" style="1" customWidth="1"/>
+    <col min="12763" max="12763" width="23.140625" style="1" customWidth="1"/>
+    <col min="12764" max="12764" width="10" style="1" customWidth="1"/>
+    <col min="12765" max="12765" width="20" style="1" customWidth="1"/>
+    <col min="12766" max="12766" width="27" style="1" customWidth="1"/>
+    <col min="12767" max="12767" width="56.7109375" style="1" customWidth="1"/>
+    <col min="12768" max="13016" width="9" style="1"/>
+    <col min="13017" max="13017" width="25.28515625" style="1" customWidth="1"/>
+    <col min="13018" max="13018" width="27.42578125" style="1" customWidth="1"/>
+    <col min="13019" max="13019" width="23.140625" style="1" customWidth="1"/>
+    <col min="13020" max="13020" width="10" style="1" customWidth="1"/>
+    <col min="13021" max="13021" width="20" style="1" customWidth="1"/>
+    <col min="13022" max="13022" width="27" style="1" customWidth="1"/>
+    <col min="13023" max="13023" width="56.7109375" style="1" customWidth="1"/>
+    <col min="13024" max="13272" width="9" style="1"/>
+    <col min="13273" max="13273" width="25.28515625" style="1" customWidth="1"/>
+    <col min="13274" max="13274" width="27.42578125" style="1" customWidth="1"/>
+    <col min="13275" max="13275" width="23.140625" style="1" customWidth="1"/>
+    <col min="13276" max="13276" width="10" style="1" customWidth="1"/>
+    <col min="13277" max="13277" width="20" style="1" customWidth="1"/>
+    <col min="13278" max="13278" width="27" style="1" customWidth="1"/>
+    <col min="13279" max="13279" width="56.7109375" style="1" customWidth="1"/>
+    <col min="13280" max="13528" width="9" style="1"/>
+    <col min="13529" max="13529" width="25.28515625" style="1" customWidth="1"/>
+    <col min="13530" max="13530" width="27.42578125" style="1" customWidth="1"/>
+    <col min="13531" max="13531" width="23.140625" style="1" customWidth="1"/>
+    <col min="13532" max="13532" width="10" style="1" customWidth="1"/>
+    <col min="13533" max="13533" width="20" style="1" customWidth="1"/>
+    <col min="13534" max="13534" width="27" style="1" customWidth="1"/>
+    <col min="13535" max="13535" width="56.7109375" style="1" customWidth="1"/>
+    <col min="13536" max="13784" width="9" style="1"/>
+    <col min="13785" max="13785" width="25.28515625" style="1" customWidth="1"/>
+    <col min="13786" max="13786" width="27.42578125" style="1" customWidth="1"/>
+    <col min="13787" max="13787" width="23.140625" style="1" customWidth="1"/>
+    <col min="13788" max="13788" width="10" style="1" customWidth="1"/>
+    <col min="13789" max="13789" width="20" style="1" customWidth="1"/>
+    <col min="13790" max="13790" width="27" style="1" customWidth="1"/>
+    <col min="13791" max="13791" width="56.7109375" style="1" customWidth="1"/>
+    <col min="13792" max="14040" width="9" style="1"/>
+    <col min="14041" max="14041" width="25.28515625" style="1" customWidth="1"/>
+    <col min="14042" max="14042" width="27.42578125" style="1" customWidth="1"/>
+    <col min="14043" max="14043" width="23.140625" style="1" customWidth="1"/>
+    <col min="14044" max="14044" width="10" style="1" customWidth="1"/>
+    <col min="14045" max="14045" width="20" style="1" customWidth="1"/>
+    <col min="14046" max="14046" width="27" style="1" customWidth="1"/>
+    <col min="14047" max="14047" width="56.7109375" style="1" customWidth="1"/>
+    <col min="14048" max="14296" width="9" style="1"/>
+    <col min="14297" max="14297" width="25.28515625" style="1" customWidth="1"/>
+    <col min="14298" max="14298" width="27.42578125" style="1" customWidth="1"/>
+    <col min="14299" max="14299" width="23.140625" style="1" customWidth="1"/>
+    <col min="14300" max="14300" width="10" style="1" customWidth="1"/>
+    <col min="14301" max="14301" width="20" style="1" customWidth="1"/>
+    <col min="14302" max="14302" width="27" style="1" customWidth="1"/>
+    <col min="14303" max="14303" width="56.7109375" style="1" customWidth="1"/>
+    <col min="14304" max="14552" width="9" style="1"/>
+    <col min="14553" max="14553" width="25.28515625" style="1" customWidth="1"/>
+    <col min="14554" max="14554" width="27.42578125" style="1" customWidth="1"/>
+    <col min="14555" max="14555" width="23.140625" style="1" customWidth="1"/>
+    <col min="14556" max="14556" width="10" style="1" customWidth="1"/>
+    <col min="14557" max="14557" width="20" style="1" customWidth="1"/>
+    <col min="14558" max="14558" width="27" style="1" customWidth="1"/>
+    <col min="14559" max="14559" width="56.7109375" style="1" customWidth="1"/>
+    <col min="14560" max="14808" width="9" style="1"/>
+    <col min="14809" max="14809" width="25.28515625" style="1" customWidth="1"/>
+    <col min="14810" max="14810" width="27.42578125" style="1" customWidth="1"/>
+    <col min="14811" max="14811" width="23.140625" style="1" customWidth="1"/>
+    <col min="14812" max="14812" width="10" style="1" customWidth="1"/>
+    <col min="14813" max="14813" width="20" style="1" customWidth="1"/>
+    <col min="14814" max="14814" width="27" style="1" customWidth="1"/>
+    <col min="14815" max="14815" width="56.7109375" style="1" customWidth="1"/>
+    <col min="14816" max="15064" width="9" style="1"/>
+    <col min="15065" max="15065" width="25.28515625" style="1" customWidth="1"/>
+    <col min="15066" max="15066" width="27.42578125" style="1" customWidth="1"/>
+    <col min="15067" max="15067" width="23.140625" style="1" customWidth="1"/>
+    <col min="15068" max="15068" width="10" style="1" customWidth="1"/>
+    <col min="15069" max="15069" width="20" style="1" customWidth="1"/>
+    <col min="15070" max="15070" width="27" style="1" customWidth="1"/>
+    <col min="15071" max="15071" width="56.7109375" style="1" customWidth="1"/>
+    <col min="15072" max="15320" width="9" style="1"/>
+    <col min="15321" max="15321" width="25.28515625" style="1" customWidth="1"/>
+    <col min="15322" max="15322" width="27.42578125" style="1" customWidth="1"/>
+    <col min="15323" max="15323" width="23.140625" style="1" customWidth="1"/>
+    <col min="15324" max="15324" width="10" style="1" customWidth="1"/>
+    <col min="15325" max="15325" width="20" style="1" customWidth="1"/>
+    <col min="15326" max="15326" width="27" style="1" customWidth="1"/>
+    <col min="15327" max="15327" width="56.7109375" style="1" customWidth="1"/>
+    <col min="15328" max="15576" width="9" style="1"/>
+    <col min="15577" max="15577" width="25.28515625" style="1" customWidth="1"/>
+    <col min="15578" max="15578" width="27.42578125" style="1" customWidth="1"/>
+    <col min="15579" max="15579" width="23.140625" style="1" customWidth="1"/>
+    <col min="15580" max="15580" width="10" style="1" customWidth="1"/>
+    <col min="15581" max="15581" width="20" style="1" customWidth="1"/>
+    <col min="15582" max="15582" width="27" style="1" customWidth="1"/>
+    <col min="15583" max="15583" width="56.7109375" style="1" customWidth="1"/>
+    <col min="15584" max="15832" width="9" style="1"/>
+    <col min="15833" max="15833" width="25.28515625" style="1" customWidth="1"/>
+    <col min="15834" max="15834" width="27.42578125" style="1" customWidth="1"/>
+    <col min="15835" max="15835" width="23.140625" style="1" customWidth="1"/>
+    <col min="15836" max="15836" width="10" style="1" customWidth="1"/>
+    <col min="15837" max="15837" width="20" style="1" customWidth="1"/>
+    <col min="15838" max="15838" width="27" style="1" customWidth="1"/>
+    <col min="15839" max="15839" width="56.7109375" style="1" customWidth="1"/>
+    <col min="15840" max="16088" width="9" style="1"/>
+    <col min="16089" max="16089" width="25.28515625" style="1" customWidth="1"/>
+    <col min="16090" max="16090" width="27.42578125" style="1" customWidth="1"/>
+    <col min="16091" max="16091" width="23.140625" style="1" customWidth="1"/>
+    <col min="16092" max="16092" width="10" style="1" customWidth="1"/>
+    <col min="16093" max="16093" width="20" style="1" customWidth="1"/>
+    <col min="16094" max="16094" width="27" style="1" customWidth="1"/>
+    <col min="16095" max="16095" width="56.7109375" style="1" customWidth="1"/>
+    <col min="16096" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1999,9 +1734,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" ref="B3" si="0">B2</f>
@@ -2012,7 +1747,7 @@
         <v xml:space="preserve">RY匝道1号小桥 （RYK0+264.8）   </v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="A3:E18" si="1">D2</f>
+        <f t="shared" ref="C3:E18" si="1">D2</f>
         <v xml:space="preserve">基础及下部构造
 </v>
       </c>
@@ -2030,9 +1765,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" ref="B4" si="2">B3</f>
@@ -2061,9 +1796,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" ref="B5" si="3">B4</f>
@@ -2092,9 +1827,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" ref="B6" si="4">B5</f>
@@ -2123,9 +1858,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" ref="B7" si="5">B6</f>
@@ -2151,9 +1886,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" ref="B8" si="6">B7</f>
@@ -2181,9 +1916,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" ref="B9" si="7">B8</f>
@@ -2212,9 +1947,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" ref="B10" si="8">B9</f>
@@ -2243,9 +1978,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" ref="B11" si="9">B10</f>
@@ -2274,9 +2009,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" ref="B12" si="10">B11</f>
@@ -2305,9 +2040,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" ref="B13" si="11">B12</f>
@@ -2333,9 +2068,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" ref="B14" si="12">B13</f>
@@ -2361,9 +2096,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" ref="B15" si="13">B14</f>
@@ -2392,9 +2127,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" ref="B16" si="14">B15</f>
@@ -2423,9 +2158,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" ref="B17" si="15">B16</f>
@@ -2454,9 +2189,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" ref="B18" si="16">B17</f>
@@ -2485,16 +2220,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" ref="B19" si="17">B18</f>
         <v xml:space="preserve">互通立交工程 </v>
       </c>
       <c r="C19" s="1" t="str">
-        <f t="shared" ref="A19:E22" si="18">C18</f>
+        <f t="shared" ref="C19:E22" si="18">C18</f>
         <v xml:space="preserve">RY匝道1号小桥 （RYK0+264.8）   </v>
       </c>
       <c r="D19" s="1" t="str">
@@ -2516,9 +2251,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" ref="B20" si="19">B19</f>
@@ -2547,9 +2282,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" ref="B21" si="20">B20</f>
@@ -2578,9 +2313,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="shared" ref="B22" si="21">B21</f>
@@ -2609,15 +2344,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>51</v>
@@ -2635,16 +2370,16 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" ref="B24" si="22">B23</f>
         <v xml:space="preserve">互通立交工程 </v>
       </c>
       <c r="C24" s="1" t="str">
-        <f t="shared" ref="A24:E36" si="23">C23</f>
+        <f t="shared" ref="C24:E36" si="23">C23</f>
         <v xml:space="preserve">RY匝道1号小桥 （RYK0+264.8） </v>
       </c>
       <c r="D24" s="1" t="str">
@@ -2666,9 +2401,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" ref="B25" si="24">B24</f>
@@ -2697,9 +2432,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" ref="B26" si="25">B25</f>
@@ -2725,9 +2460,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" ref="B27" si="26">B26</f>
@@ -2754,9 +2489,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" ref="B28" si="27">B27</f>
@@ -2780,9 +2515,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" ref="B29" si="28">B28</f>
@@ -2810,9 +2545,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" ref="B30" si="29">B29</f>
@@ -2840,9 +2575,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" ref="B31" si="30">B30</f>
@@ -2869,13 +2604,10 @@
       <c r="H31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" ref="B32" si="31">B31</f>
@@ -2900,12 +2632,12 @@
         <v>74</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" ref="B33" si="32">B32</f>
@@ -2930,12 +2662,12 @@
         <v>76</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" ref="B34" si="33">B33</f>
@@ -2960,15 +2692,12 @@
         <v>78</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" ref="B35" si="34">B34</f>
@@ -2993,15 +2722,12 @@
         <v>80</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" ref="B36" si="35">B35</f>
@@ -3025,7 +2751,7 @@
         <v>83</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
